--- a/biology/Botanique/Epipactis_albensis_var._fibri/Epipactis_albensis_var._fibri.xlsx
+++ b/biology/Botanique/Epipactis_albensis_var._fibri/Epipactis_albensis_var._fibri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Epipactis albensis var. fibri, l'helléborine des castors[réf. nécessaire] est une variété de plantes à fleurs de la familles des orchidées, endémique des forêts alluviales humides de la vallée du Rhône[2]. Elle a été découverte en 1992 par les scientifiques.
+Epipactis albensis var. fibri, l'helléborine des castors[réf. nécessaire] est une variété de plantes à fleurs de la familles des orchidées, endémique des forêts alluviales humides de la vallée du Rhône. Elle a été découverte en 1992 par les scientifiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété a été identifiée dans la peupleraie de l'île du Beurre et elle est spécifique de la moyenne vallée du Rhône[2], également présente dans la RNF de l'Ile de la Platière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété a été identifiée dans la peupleraie de l'île du Beurre et elle est spécifique de la moyenne vallée du Rhône, également présente dans la RNF de l'Ile de la Platière.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse uniquement dans des sous-bois au sol peu acide, en symbiose avec des peupliers. D'une taille variant de 10 à 24 cm, elle fleurit entre juillet et octobre. Ses feuilles sont petites et son inflorescence est constituée de 8 à 17 fleurs de couleur vert-jaune pâle à blanc[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse uniquement dans des sous-bois au sol peu acide, en symbiose avec des peupliers. D'une taille variant de 10 à 24 cm, elle fleurit entre juillet et octobre. Ses feuilles sont petites et son inflorescence est constituée de 8 à 17 fleurs de couleur vert-jaune pâle à blanc.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Epipactis fibri Scappat. &amp; Robatsch</t>
         </is>
